--- a/Notebooks/Constanta Phase III/Input data/first_test_data_phase_III.xlsx
+++ b/Notebooks/Constanta Phase III/Input data/first_test_data_phase_III.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY6\github\breakwater\Notebooks\Constanta Phase III\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB4FB80-A269-42E6-96A0-7BE6C8081D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C80FD0-2561-4A4C-89C3-C7F1C47B15F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{06ED436A-2CC0-4489-A506-29F94518B839}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{06ED436A-2CC0-4489-A506-29F94518B839}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -1660,121 +1660,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FADF3455-3E5D-4FF3-B5C3-EF436E5E06DA}"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{16F9A0D8-0F79-404D-93B1-F4D650682D89}"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="46">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2137,6 +2023,110 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2296,7 +2286,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{128A59F9-895D-4C60-8954-4F77FF691FFB}" name="Overview" displayName="Overview" ref="A2:G62" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{128A59F9-895D-4C60-8954-4F77FF691FFB}" name="Overview" displayName="Overview" ref="A2:G62" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A2:G62" xr:uid="{C615D3FE-C5C3-4AC1-8573-2115046F6FC7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FDED3D30-FC03-4894-AAAE-7069E3558798}" name="Input"/>
@@ -2304,8 +2294,8 @@
     <tableColumn id="3" xr3:uid="{122DBA8D-3347-48F4-8A76-270615744B5D}" name="Unit"/>
     <tableColumn id="4" xr3:uid="{B4BA3D29-867B-4EF8-A808-EE6581BB8115}" name="Category"/>
     <tableColumn id="5" xr3:uid="{CB74FB27-39F6-4359-BAC6-C5DFAC8E01C0}" name="Used for"/>
-    <tableColumn id="6" xr3:uid="{266927E0-00C5-4D6A-BB41-21164D34B2CE}" name="Necessary input" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{30AC8882-C2A6-43C1-86B7-25C9ED481C62}" name="Remarks" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{266927E0-00C5-4D6A-BB41-21164D34B2CE}" name="Necessary input" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{30AC8882-C2A6-43C1-86B7-25C9ED481C62}" name="Remarks" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2327,10 +2317,10 @@
   <tableColumns count="6">
     <tableColumn id="6" xr3:uid="{32645932-B206-41E7-B1E9-2A52D9AE0D60}" name="Limit State"/>
     <tableColumn id="1" xr3:uid="{B6826C86-D95D-4464-8196-B4E1CEBC5F0A}" name="Nod"/>
-    <tableColumn id="2" xr3:uid="{12FE237E-CE70-4E63-BE4C-9D0365BAB8AC}" name="Accropode II-trunk" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{3045C02B-DCDC-42A1-B50F-88D0E610E62A}" name="Accropode II-roundhead" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{0280B610-A0B2-48C8-AB40-3AE6F87EDE4A}" name="Xbloc-trunk" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{C26BCBB6-089E-47C5-9394-EA17687F6843}" name="Xbloc-roundhead" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{12FE237E-CE70-4E63-BE4C-9D0365BAB8AC}" name="Accropode II-trunk" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{3045C02B-DCDC-42A1-B50F-88D0E610E62A}" name="Accropode II-roundhead" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{0280B610-A0B2-48C8-AB40-3AE6F87EDE4A}" name="Xbloc-trunk" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{C26BCBB6-089E-47C5-9394-EA17687F6843}" name="Xbloc-roundhead" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2340,10 +2330,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{88915663-9067-4DC4-90A4-2D7CD517273B}" name="input_project" displayName="input_project" ref="A1:E29" totalsRowShown="0">
   <autoFilter ref="A1:E29" xr:uid="{8653FB80-28B1-42DD-ADDB-1F402573EE6E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{10575A1B-65C2-4D3D-A919-D5D631E15E73}" name="Parameter" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9F5575C0-7208-43BD-86BC-6A3485FF384C}" name="Symbol" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1CF28AEF-1CBA-48D2-A66A-EE6DC73C8CC9}" name="Unit " dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{FB5987BB-56D7-412F-8C95-1F5820C3E77A}" name="Explanation" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{10575A1B-65C2-4D3D-A919-D5D631E15E73}" name="Parameter" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{9F5575C0-7208-43BD-86BC-6A3485FF384C}" name="Symbol" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{1CF28AEF-1CBA-48D2-A66A-EE6DC73C8CC9}" name="Unit " dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{FB5987BB-56D7-412F-8C95-1F5820C3E77A}" name="Explanation" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{5ABE4DA7-DB09-46BC-AF34-3D5B699627F3}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2351,35 +2341,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6634BB44-66AA-43C5-94C9-21ADB80AD51A}" name="input_requirements" displayName="input_requirements" ref="A1:G6" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6634BB44-66AA-43C5-94C9-21ADB80AD51A}" name="input_requirements" displayName="input_requirements" ref="A1:G6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A1:G6" xr:uid="{AC8FC8D0-6474-4C46-AABC-7775C18E706C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ED5624B9-4A0A-4F41-BA44-D0E02EE32577}" name="Parameter" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{2B068622-98F3-4E2A-BE8E-A97C121E3F4C}" name="Symbol" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{4BC1E5B1-1862-4E8F-8CC1-D2F05F356929}" name="Unit " dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{F431E098-CB44-4ACA-97A5-C64500DD9528}" name="Explanation" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{C6914755-DB47-4220-827C-0984890970A0}" name="ELS" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{D3A99EAE-B2C9-4E74-B3E2-A288F4532A21}" name="SLS" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{9350B3BA-690A-42F3-BB94-29E26F161B54}" name="ULS" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{ED5624B9-4A0A-4F41-BA44-D0E02EE32577}" name="Parameter" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{2B068622-98F3-4E2A-BE8E-A97C121E3F4C}" name="Symbol" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{4BC1E5B1-1862-4E8F-8CC1-D2F05F356929}" name="Unit " dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{F431E098-CB44-4ACA-97A5-C64500DD9528}" name="Explanation" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{C6914755-DB47-4220-827C-0984890970A0}" name="ELS" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{D3A99EAE-B2C9-4E74-B3E2-A288F4532A21}" name="SLS" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{9350B3BA-690A-42F3-BB94-29E26F161B54}" name="ULS" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5DFFFB11-DDA0-4FF0-A99C-C5B40B22BB0F}" name="input_cross_section" displayName="input_cross_section" ref="A2:O33" totalsRowShown="0" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5DFFFB11-DDA0-4FF0-A99C-C5B40B22BB0F}" name="input_cross_section" displayName="input_cross_section" ref="A2:O33" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="A2:O33" xr:uid="{EDBA852A-A4D9-4055-8891-B74537BE60D1}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{65F89A4D-13BC-480A-9A54-9B5181E61222}" name="Structure" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{DD7D1624-C590-49ED-8883-96E10DDFDC57}" name="Chainage" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{56CAAB95-7C5D-4C77-9690-8C7E28E5E58F}" name="dir_structure" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{65F89A4D-13BC-480A-9A54-9B5181E61222}" name="Structure" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{DD7D1624-C590-49ED-8883-96E10DDFDC57}" name="Chainage" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{56CAAB95-7C5D-4C77-9690-8C7E28E5E58F}" name="dir_structure" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{3211485F-4253-4196-9552-5388E1C18679}" name="z_bed"/>
     <tableColumn id="5" xr3:uid="{12FF2071-DB6F-4635-AAF2-7224DB03F7AF}" name="public"/>
     <tableColumn id="6" xr3:uid="{3C50E8D0-D9A3-4D42-9184-21A91AB97D26}" name="P"/>
-    <tableColumn id="7" xr3:uid="{67557D02-D417-4935-83D4-56C7A3EC4E57}" name="tan_a_rock" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{DD1B5A35-E0CF-4F5C-BF49-2454E6B4D0C7}" name="tan_a_concrete" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{67557D02-D417-4935-83D4-56C7A3EC4E57}" name="tan_a_rock" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{DD1B5A35-E0CF-4F5C-BF49-2454E6B4D0C7}" name="tan_a_concrete" dataDxfId="14"/>
     <tableColumn id="9" xr3:uid="{0A204ACD-A807-4615-BEB7-8F6AA353A3CD}" name="Gc"/>
-    <tableColumn id="10" xr3:uid="{0003E8D8-CC23-4555-A626-BC13BBABE9B8}" name="slope_foreshore" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{0003E8D8-CC23-4555-A626-BC13BBABE9B8}" name="slope_foreshore" dataDxfId="13"/>
     <tableColumn id="12" xr3:uid="{74307101-79D4-4197-A798-20BAE3C12767}" name="crest_roughness"/>
     <tableColumn id="13" xr3:uid="{30E9BE3D-820F-4565-AD86-93CC1E7A860F}" name="cot_a_rear"/>
     <tableColumn id="14" xr3:uid="{A3804960-2456-4577-852A-50CF47F120BD}" name="B"/>
@@ -2391,19 +2381,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A63CE4AC-CF5D-406B-B465-B4984FB45555}" name="input_hydrometeo" displayName="input_hydrometeo" ref="A2:J746" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A63CE4AC-CF5D-406B-B465-B4984FB45555}" name="input_hydrometeo" displayName="input_hydrometeo" ref="A2:J746" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:J746" xr:uid="{8EC5B0C1-E4CA-4C7B-AA39-695D226630E3}"/>
   <tableColumns count="10">
-    <tableColumn id="6" xr3:uid="{F9A5357A-5DE4-4408-A14A-E6698FD3755F}" name="Calculation_case" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{012C1F4F-AAC2-4FD0-A162-E004B1A207F9}" name="Structure" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{BE45E132-052E-4051-A5CC-2691B8D1D576}" name="Chainage" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CE4FADC8-9574-4B7C-9E02-F0716073BF79}" name="Offshore bin" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C0A99159-F33E-4796-BC72-CB4DE68B9FDE}" name="Limit State" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{240593D5-435F-4039-BD0D-5B8B3FDD3128}" name="wl" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{1A72D5A3-EEEE-48D4-B8C7-0BC7A1474131}" name="Hm0" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{937FF273-2A9A-4DA7-AC8F-B2F74F1681D7}" name="dir_wave" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{A397DA8E-DE81-4096-A083-356358DACD29}" name="Tm-1,0" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{17652E84-F087-4BBA-B4B9-CD36B5153566}" name="Tm0,2" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F9A5357A-5DE4-4408-A14A-E6698FD3755F}" name="Calculation_case" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{012C1F4F-AAC2-4FD0-A162-E004B1A207F9}" name="Structure" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BE45E132-052E-4051-A5CC-2691B8D1D576}" name="Chainage" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CE4FADC8-9574-4B7C-9E02-F0716073BF79}" name="Offshore bin" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C0A99159-F33E-4796-BC72-CB4DE68B9FDE}" name="Limit State" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{240593D5-435F-4039-BD0D-5B8B3FDD3128}" name="wl" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1A72D5A3-EEEE-48D4-B8C7-0BC7A1474131}" name="Hm0" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{937FF273-2A9A-4DA7-AC8F-B2F74F1681D7}" name="dir_wave" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{A397DA8E-DE81-4096-A083-356358DACD29}" name="Tm-1,0" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{17652E84-F087-4BBA-B4B9-CD36B5153566}" name="Tm0,2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2712,25 +2702,25 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="60.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="61.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
+    <col min="6" max="6" width="46.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +2743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2773,7 +2763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2793,7 +2783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>183</v>
       </c>
@@ -2813,7 +2803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2830,7 +2820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2853,7 +2843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2896,7 +2886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2916,7 +2906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2939,7 +2929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2959,7 +2949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2982,7 +2972,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3005,7 +2995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -3028,7 +3018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3051,7 +3041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -3071,7 +3061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3094,7 +3084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -3117,7 +3107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -3140,7 +3130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -3163,7 +3153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -3186,7 +3176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -3209,7 +3199,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -3229,7 +3219,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -3252,7 +3242,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>65</v>
       </c>
@@ -3270,7 +3260,7 @@
       </c>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -3290,7 +3280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -3313,7 +3303,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -3337,7 +3327,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -3360,7 +3350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -3380,7 +3370,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -3400,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -3423,7 +3413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -3443,7 +3433,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -3463,7 +3453,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -3483,7 +3473,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -3503,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -3529,7 +3519,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>220</v>
       </c>
@@ -3549,7 +3539,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>222</v>
       </c>
@@ -3570,7 +3560,7 @@
       </c>
       <c r="G40" s="20"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -3590,7 +3580,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -3610,7 +3600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -3630,7 +3620,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -3650,7 +3640,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -3673,7 +3663,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -3696,7 +3686,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -3719,7 +3709,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -3742,7 +3732,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -3765,7 +3755,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -3785,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -3805,7 +3795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -3831,7 +3821,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -3857,7 +3847,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -3883,7 +3873,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -3906,7 +3896,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -3929,7 +3919,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -3952,7 +3942,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -3972,7 +3962,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -3992,7 +3982,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -4015,7 +4005,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>174</v>
       </c>
@@ -4038,7 +4028,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>177</v>
       </c>
@@ -4061,7 +4051,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4089,47 +4079,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>211</v>
       </c>
@@ -4150,17 +4140,17 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -4168,7 +4158,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4188,7 +4178,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -4197,7 +4187,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>209</v>
       </c>
@@ -4217,7 +4207,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>210</v>
       </c>
@@ -4249,19 +4239,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B902128-77A3-4FC4-8358-70CDD0AB45F8}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>198</v>
       </c>
@@ -4278,7 +4268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
@@ -4292,7 +4282,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
@@ -4306,7 +4296,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>183</v>
       </c>
@@ -4320,7 +4310,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>13</v>
       </c>
@@ -4334,7 +4324,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>237</v>
       </c>
@@ -4348,7 +4338,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>238</v>
       </c>
@@ -4362,7 +4352,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>239</v>
       </c>
@@ -4376,7 +4366,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>247</v>
       </c>
@@ -4390,7 +4380,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>248</v>
       </c>
@@ -4404,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>249</v>
       </c>
@@ -4418,7 +4408,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>250</v>
       </c>
@@ -4432,7 +4422,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>152</v>
       </c>
@@ -4449,7 +4439,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>307</v>
       </c>
@@ -4466,7 +4456,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>256</v>
       </c>
@@ -4483,7 +4473,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>269</v>
       </c>
@@ -4500,7 +4490,7 @@
         <v>1.077</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>270</v>
       </c>
@@ -4517,7 +4507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>273</v>
       </c>
@@ -4534,7 +4524,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>310</v>
       </c>
@@ -4551,7 +4541,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>314</v>
       </c>
@@ -4568,7 +4558,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>317</v>
       </c>
@@ -4585,7 +4575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
         <v>319</v>
       </c>
@@ -4602,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
         <v>322</v>
       </c>
@@ -4619,7 +4609,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
         <v>326</v>
       </c>
@@ -4636,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>329</v>
       </c>
@@ -4650,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
         <v>331</v>
       </c>
@@ -4667,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
         <v>334</v>
       </c>
@@ -4684,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>337</v>
       </c>
@@ -4698,7 +4688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>339</v>
       </c>
@@ -4714,7 +4704,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B29">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4732,15 +4722,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>198</v>
       </c>
@@ -4763,7 +4753,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>242</v>
       </c>
@@ -4784,7 +4774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>243</v>
       </c>
@@ -4801,7 +4791,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>59</v>
       </c>
@@ -4820,7 +4810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>62</v>
       </c>
@@ -4839,7 +4829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>165</v>
       </c>
@@ -4860,7 +4850,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4877,25 +4867,25 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" s="19" t="s">
         <v>244</v>
       </c>
@@ -4936,7 +4926,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>205</v>
       </c>
@@ -4983,7 +4973,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>276</v>
       </c>
@@ -5030,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>276</v>
       </c>
@@ -5077,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>276</v>
       </c>
@@ -5124,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>276</v>
       </c>
@@ -5171,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>276</v>
       </c>
@@ -5218,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>276</v>
       </c>
@@ -5265,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>276</v>
       </c>
@@ -5312,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>276</v>
       </c>
@@ -5359,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>276</v>
       </c>
@@ -5406,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>286</v>
       </c>
@@ -5453,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>286</v>
       </c>
@@ -5500,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>286</v>
       </c>
@@ -5547,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>286</v>
       </c>
@@ -5594,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>286</v>
       </c>
@@ -5641,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>286</v>
       </c>
@@ -5688,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>286</v>
       </c>
@@ -5735,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
         <v>286</v>
       </c>
@@ -5782,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
         <v>286</v>
       </c>
@@ -5829,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
         <v>286</v>
       </c>
@@ -5876,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>286</v>
       </c>
@@ -5923,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>292</v>
       </c>
@@ -5970,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
         <v>292</v>
       </c>
@@ -6017,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>292</v>
       </c>
@@ -6064,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
         <v>292</v>
       </c>
@@ -6111,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>292</v>
       </c>
@@ -6158,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
         <v>292</v>
       </c>
@@ -6205,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
         <v>292</v>
       </c>
@@ -6252,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
         <v>292</v>
       </c>
@@ -6299,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
         <v>292</v>
       </c>
@@ -6346,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
         <v>292</v>
       </c>
@@ -6393,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
         <v>292</v>
       </c>
@@ -6453,25 +6443,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB3671-1ED6-422F-86FB-257A56869058}">
   <dimension ref="A2:M746"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+    <sheetView topLeftCell="A481" workbookViewId="0">
       <selection activeCell="G497" sqref="G497"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>241</v>
       </c>
@@ -6503,7 +6493,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -6535,7 +6525,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -6567,7 +6557,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -6599,7 +6589,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -6631,7 +6621,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -6663,7 +6653,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -6695,7 +6685,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -6727,7 +6717,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -6759,7 +6749,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>9</v>
       </c>
@@ -6791,7 +6781,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>10</v>
       </c>
@@ -6823,7 +6813,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>11</v>
       </c>
@@ -6855,7 +6845,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>12</v>
       </c>
@@ -6887,7 +6877,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -6919,7 +6909,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>14</v>
       </c>
@@ -6951,7 +6941,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>15</v>
       </c>
@@ -6983,7 +6973,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>16</v>
       </c>
@@ -7015,7 +7005,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>17</v>
       </c>
@@ -7047,7 +7037,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>18</v>
       </c>
@@ -7079,7 +7069,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>19</v>
       </c>
@@ -7111,7 +7101,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>20</v>
       </c>
@@ -7143,7 +7133,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -7175,7 +7165,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -7207,7 +7197,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>23</v>
       </c>
@@ -7239,7 +7229,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>24</v>
       </c>
@@ -7271,7 +7261,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>25</v>
       </c>
@@ -7303,7 +7293,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>26</v>
       </c>
@@ -7335,7 +7325,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>27</v>
       </c>
@@ -7367,7 +7357,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>28</v>
       </c>
@@ -7399,7 +7389,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>29</v>
       </c>
@@ -7431,7 +7421,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>30</v>
       </c>
@@ -7463,7 +7453,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>31</v>
       </c>
@@ -7495,7 +7485,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>32</v>
       </c>
@@ -7527,7 +7517,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>33</v>
       </c>
@@ -7559,7 +7549,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>34</v>
       </c>
@@ -7591,7 +7581,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>35</v>
       </c>
@@ -7623,7 +7613,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>36</v>
       </c>
@@ -7655,7 +7645,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>37</v>
       </c>
@@ -7687,7 +7677,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>38</v>
       </c>
@@ -7719,7 +7709,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>39</v>
       </c>
@@ -7751,7 +7741,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>40</v>
       </c>
@@ -7783,7 +7773,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>41</v>
       </c>
@@ -7815,7 +7805,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>42</v>
       </c>
@@ -7847,7 +7837,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>43</v>
       </c>
@@ -7879,7 +7869,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>44</v>
       </c>
@@ -7911,7 +7901,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>45</v>
       </c>
@@ -7943,7 +7933,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>46</v>
       </c>
@@ -7975,7 +7965,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>47</v>
       </c>
@@ -8007,7 +7997,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>48</v>
       </c>
@@ -8039,7 +8029,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>49</v>
       </c>
@@ -8071,7 +8061,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>50</v>
       </c>
@@ -8103,7 +8093,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>51</v>
       </c>
@@ -8135,7 +8125,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>52</v>
       </c>
@@ -8167,7 +8157,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>53</v>
       </c>
@@ -8199,7 +8189,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>54</v>
       </c>
@@ -8231,7 +8221,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>55</v>
       </c>
@@ -8263,7 +8253,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>56</v>
       </c>
@@ -8295,7 +8285,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>57</v>
       </c>
@@ -8327,7 +8317,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>58</v>
       </c>
@@ -8359,7 +8349,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>59</v>
       </c>
@@ -8391,7 +8381,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>60</v>
       </c>
@@ -8423,7 +8413,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>61</v>
       </c>
@@ -8455,7 +8445,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>62</v>
       </c>
@@ -8487,7 +8477,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>63</v>
       </c>
@@ -8519,7 +8509,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>64</v>
       </c>
@@ -8551,7 +8541,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>65</v>
       </c>
@@ -8583,7 +8573,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>66</v>
       </c>
@@ -8615,7 +8605,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
         <v>67</v>
       </c>
@@ -8647,7 +8637,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>68</v>
       </c>
@@ -8679,7 +8669,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
         <v>69</v>
       </c>
@@ -8711,7 +8701,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>70</v>
       </c>
@@ -8743,7 +8733,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
         <v>71</v>
       </c>
@@ -8775,7 +8765,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>72</v>
       </c>
@@ -8807,7 +8797,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>73</v>
       </c>
@@ -8839,7 +8829,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>74</v>
       </c>
@@ -8871,7 +8861,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
         <v>75</v>
       </c>
@@ -8906,7 +8896,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
         <v>76</v>
       </c>
@@ -8941,7 +8931,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>77</v>
       </c>
@@ -8976,7 +8966,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>78</v>
       </c>
@@ -9011,7 +9001,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>79</v>
       </c>
@@ -9046,7 +9036,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
         <v>80</v>
       </c>
@@ -9081,7 +9071,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>81</v>
       </c>
@@ -9116,7 +9106,7 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
         <v>82</v>
       </c>
@@ -9151,7 +9141,7 @@
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>83</v>
       </c>
@@ -9186,7 +9176,7 @@
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>84</v>
       </c>
@@ -9221,7 +9211,7 @@
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>85</v>
       </c>
@@ -9256,7 +9246,7 @@
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
         <v>86</v>
       </c>
@@ -9291,7 +9281,7 @@
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>87</v>
       </c>
@@ -9326,7 +9316,7 @@
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
         <v>88</v>
       </c>
@@ -9358,7 +9348,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>89</v>
       </c>
@@ -9390,7 +9380,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>90</v>
       </c>
@@ -9422,7 +9412,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>91</v>
       </c>
@@ -9454,7 +9444,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
         <v>92</v>
       </c>
@@ -9486,7 +9476,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
         <v>93</v>
       </c>
@@ -9518,7 +9508,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>94</v>
       </c>
@@ -9550,7 +9540,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>95</v>
       </c>
@@ -9582,7 +9572,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
         <v>96</v>
       </c>
@@ -9614,7 +9604,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
         <v>97</v>
       </c>
@@ -9646,7 +9636,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>98</v>
       </c>
@@ -9678,7 +9668,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>99</v>
       </c>
@@ -9710,7 +9700,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
         <v>100</v>
       </c>
@@ -9742,7 +9732,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
         <v>101</v>
       </c>
@@ -9774,7 +9764,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>102</v>
       </c>
@@ -9806,7 +9796,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
         <v>103</v>
       </c>
@@ -9838,7 +9828,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
         <v>104</v>
       </c>
@@ -9870,7 +9860,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
         <v>105</v>
       </c>
@@ -9902,7 +9892,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
         <v>106</v>
       </c>
@@ -9934,7 +9924,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>107</v>
       </c>
@@ -9966,7 +9956,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
         <v>108</v>
       </c>
@@ -9998,7 +9988,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>109</v>
       </c>
@@ -10030,7 +10020,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>110</v>
       </c>
@@ -10062,7 +10052,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>111</v>
       </c>
@@ -10094,7 +10084,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>112</v>
       </c>
@@ -10126,7 +10116,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
         <v>113</v>
       </c>
@@ -10158,7 +10148,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
         <v>114</v>
       </c>
@@ -10190,7 +10180,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>115</v>
       </c>
@@ -10222,7 +10212,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>116</v>
       </c>
@@ -10254,7 +10244,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>117</v>
       </c>
@@ -10286,7 +10276,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>118</v>
       </c>
@@ -10318,7 +10308,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
         <v>119</v>
       </c>
@@ -10350,7 +10340,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>120</v>
       </c>
@@ -10382,7 +10372,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>121</v>
       </c>
@@ -10414,7 +10404,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>122</v>
       </c>
@@ -10446,7 +10436,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>123</v>
       </c>
@@ -10478,7 +10468,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
         <v>124</v>
       </c>
@@ -10510,7 +10500,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
         <v>125</v>
       </c>
@@ -10542,7 +10532,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>126</v>
       </c>
@@ -10574,7 +10564,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
         <v>127</v>
       </c>
@@ -10606,7 +10596,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
         <v>128</v>
       </c>
@@ -10638,7 +10628,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
         <v>129</v>
       </c>
@@ -10670,7 +10660,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>130</v>
       </c>
@@ -10702,7 +10692,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
         <v>131</v>
       </c>
@@ -10734,7 +10724,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>132</v>
       </c>
@@ -10766,7 +10756,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>133</v>
       </c>
@@ -10798,7 +10788,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>134</v>
       </c>
@@ -10830,7 +10820,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>135</v>
       </c>
@@ -10862,7 +10852,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
         <v>136</v>
       </c>
@@ -10894,7 +10884,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
         <v>137</v>
       </c>
@@ -10926,7 +10916,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>138</v>
       </c>
@@ -10958,7 +10948,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>139</v>
       </c>
@@ -10990,7 +10980,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>140</v>
       </c>
@@ -11022,7 +11012,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>141</v>
       </c>
@@ -11054,7 +11044,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>142</v>
       </c>
@@ -11086,7 +11076,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <v>143</v>
       </c>
@@ -11118,7 +11108,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>144</v>
       </c>
@@ -11150,7 +11140,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <v>145</v>
       </c>
@@ -11182,7 +11172,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
         <v>146</v>
       </c>
@@ -11214,7 +11204,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>147</v>
       </c>
@@ -11246,7 +11236,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>148</v>
       </c>
@@ -11278,7 +11268,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
         <v>149</v>
       </c>
@@ -11310,7 +11300,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
         <v>150</v>
       </c>
@@ -11342,7 +11332,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>151</v>
       </c>
@@ -11374,7 +11364,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
         <v>152</v>
       </c>
@@ -11406,7 +11396,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>153</v>
       </c>
@@ -11438,7 +11428,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>154</v>
       </c>
@@ -11470,7 +11460,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
         <v>155</v>
       </c>
@@ -11502,7 +11492,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>156</v>
       </c>
@@ -11534,7 +11524,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>157</v>
       </c>
@@ -11566,7 +11556,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>158</v>
       </c>
@@ -11598,7 +11588,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>159</v>
       </c>
@@ -11630,7 +11620,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <v>160</v>
       </c>
@@ -11662,7 +11652,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>161</v>
       </c>
@@ -11694,7 +11684,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
         <v>162</v>
       </c>
@@ -11726,7 +11716,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
         <v>163</v>
       </c>
@@ -11758,7 +11748,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
         <v>164</v>
       </c>
@@ -11790,7 +11780,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
         <v>165</v>
       </c>
@@ -11822,7 +11812,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>166</v>
       </c>
@@ -11854,7 +11844,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
         <v>167</v>
       </c>
@@ -11886,7 +11876,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>168</v>
       </c>
@@ -11918,7 +11908,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
         <v>169</v>
       </c>
@@ -11950,7 +11940,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>170</v>
       </c>
@@ -11982,7 +11972,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>171</v>
       </c>
@@ -12014,7 +12004,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>172</v>
       </c>
@@ -12046,7 +12036,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="15">
         <v>173</v>
       </c>
@@ -12078,7 +12068,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="15">
         <v>174</v>
       </c>
@@ -12110,7 +12100,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>175</v>
       </c>
@@ -12142,7 +12132,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>176</v>
       </c>
@@ -12174,7 +12164,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="15">
         <v>177</v>
       </c>
@@ -12206,7 +12196,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>178</v>
       </c>
@@ -12238,7 +12228,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>179</v>
       </c>
@@ -12270,7 +12260,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="15">
         <v>180</v>
       </c>
@@ -12302,7 +12292,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="15">
         <v>181</v>
       </c>
@@ -12334,7 +12324,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="15">
         <v>182</v>
       </c>
@@ -12366,7 +12356,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>183</v>
       </c>
@@ -12398,7 +12388,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>184</v>
       </c>
@@ -12430,7 +12420,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>185</v>
       </c>
@@ -12462,7 +12452,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="15">
         <v>186</v>
       </c>
@@ -12494,7 +12484,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>187</v>
       </c>
@@ -12526,7 +12516,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>188</v>
       </c>
@@ -12558,7 +12548,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>189</v>
       </c>
@@ -12590,7 +12580,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="15">
         <v>190</v>
       </c>
@@ -12622,7 +12612,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <v>191</v>
       </c>
@@ -12654,7 +12644,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="15">
         <v>192</v>
       </c>
@@ -12686,7 +12676,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="15">
         <v>193</v>
       </c>
@@ -12718,7 +12708,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <v>194</v>
       </c>
@@ -12750,7 +12740,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="15">
         <v>195</v>
       </c>
@@ -12782,7 +12772,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>196</v>
       </c>
@@ -12814,7 +12804,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="15">
         <v>197</v>
       </c>
@@ -12846,7 +12836,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <v>198</v>
       </c>
@@ -12878,7 +12868,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <v>199</v>
       </c>
@@ -12910,7 +12900,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <v>200</v>
       </c>
@@ -12942,7 +12932,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="15">
         <v>201</v>
       </c>
@@ -12974,7 +12964,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="15">
         <v>202</v>
       </c>
@@ -13006,7 +12996,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="15">
         <v>203</v>
       </c>
@@ -13038,7 +13028,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <v>204</v>
       </c>
@@ -13070,7 +13060,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <v>205</v>
       </c>
@@ -13102,7 +13092,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="15">
         <v>206</v>
       </c>
@@ -13134,7 +13124,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <v>207</v>
       </c>
@@ -13166,7 +13156,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <v>208</v>
       </c>
@@ -13198,7 +13188,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="15">
         <v>209</v>
       </c>
@@ -13230,7 +13220,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <v>210</v>
       </c>
@@ -13262,7 +13252,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <v>211</v>
       </c>
@@ -13294,7 +13284,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="15">
         <v>212</v>
       </c>
@@ -13326,7 +13316,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="15">
         <v>213</v>
       </c>
@@ -13358,7 +13348,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <v>214</v>
       </c>
@@ -13390,7 +13380,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="15">
         <v>215</v>
       </c>
@@ -13422,7 +13412,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="15">
         <v>216</v>
       </c>
@@ -13454,7 +13444,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <v>217</v>
       </c>
@@ -13486,7 +13476,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="15">
         <v>218</v>
       </c>
@@ -13518,7 +13508,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="15">
         <v>219</v>
       </c>
@@ -13550,7 +13540,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="15">
         <v>220</v>
       </c>
@@ -13582,7 +13572,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
         <v>221</v>
       </c>
@@ -13614,7 +13604,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="15">
         <v>222</v>
       </c>
@@ -13646,7 +13636,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="15">
         <v>223</v>
       </c>
@@ -13678,7 +13668,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
         <v>224</v>
       </c>
@@ -13710,7 +13700,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="15">
         <v>225</v>
       </c>
@@ -13742,7 +13732,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <v>226</v>
       </c>
@@ -13774,7 +13764,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <v>227</v>
       </c>
@@ -13806,7 +13796,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="15">
         <v>228</v>
       </c>
@@ -13838,7 +13828,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
         <v>229</v>
       </c>
@@ -13870,7 +13860,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="15">
         <v>230</v>
       </c>
@@ -13902,7 +13892,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="15">
         <v>231</v>
       </c>
@@ -13934,7 +13924,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="15">
         <v>232</v>
       </c>
@@ -13966,7 +13956,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="15">
         <v>233</v>
       </c>
@@ -13998,7 +13988,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="15">
         <v>234</v>
       </c>
@@ -14030,7 +14020,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="15">
         <v>235</v>
       </c>
@@ -14062,7 +14052,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="15">
         <v>236</v>
       </c>
@@ -14094,7 +14084,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="15">
         <v>237</v>
       </c>
@@ -14126,7 +14116,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="15">
         <v>238</v>
       </c>
@@ -14158,7 +14148,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="15">
         <v>239</v>
       </c>
@@ -14190,7 +14180,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="15">
         <v>240</v>
       </c>
@@ -14222,7 +14212,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="15">
         <v>241</v>
       </c>
@@ -14254,7 +14244,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="15">
         <v>242</v>
       </c>
@@ -14286,7 +14276,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="15">
         <v>243</v>
       </c>
@@ -14318,7 +14308,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="15">
         <v>244</v>
       </c>
@@ -14350,7 +14340,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="15">
         <v>245</v>
       </c>
@@ -14382,7 +14372,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="15">
         <v>246</v>
       </c>
@@ -14414,7 +14404,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="15">
         <v>247</v>
       </c>
@@ -14446,7 +14436,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="15">
         <v>248</v>
       </c>
@@ -14478,7 +14468,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="15">
         <v>249</v>
       </c>
@@ -14510,7 +14500,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="15">
         <v>250</v>
       </c>
@@ -14542,7 +14532,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="15">
         <v>251</v>
       </c>
@@ -14574,7 +14564,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="15">
         <v>252</v>
       </c>
@@ -14606,7 +14596,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="15">
         <v>253</v>
       </c>
@@ -14638,7 +14628,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="15">
         <v>254</v>
       </c>
@@ -14670,7 +14660,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="15">
         <v>255</v>
       </c>
@@ -14702,7 +14692,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="15">
         <v>256</v>
       </c>
@@ -14734,7 +14724,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="15">
         <v>257</v>
       </c>
@@ -14766,7 +14756,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="15">
         <v>258</v>
       </c>
@@ -14798,7 +14788,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="15">
         <v>259</v>
       </c>
@@ -14830,7 +14820,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="15">
         <v>260</v>
       </c>
@@ -14862,7 +14852,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="15">
         <v>261</v>
       </c>
@@ -14894,7 +14884,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="15">
         <v>262</v>
       </c>
@@ -14926,7 +14916,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="15">
         <v>263</v>
       </c>
@@ -14958,7 +14948,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="15">
         <v>264</v>
       </c>
@@ -14990,7 +14980,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="15">
         <v>265</v>
       </c>
@@ -15022,7 +15012,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="15">
         <v>266</v>
       </c>
@@ -15054,7 +15044,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="15">
         <v>267</v>
       </c>
@@ -15086,7 +15076,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="15">
         <v>268</v>
       </c>
@@ -15118,7 +15108,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="15">
         <v>269</v>
       </c>
@@ -15150,7 +15140,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="15">
         <v>270</v>
       </c>
@@ -15182,7 +15172,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="15">
         <v>271</v>
       </c>
@@ -15214,7 +15204,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="15">
         <v>272</v>
       </c>
@@ -15246,7 +15236,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="15">
         <v>273</v>
       </c>
@@ -15278,7 +15268,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="15">
         <v>274</v>
       </c>
@@ -15310,7 +15300,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="15">
         <v>275</v>
       </c>
@@ -15342,7 +15332,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="15">
         <v>276</v>
       </c>
@@ -15374,7 +15364,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="15">
         <v>277</v>
       </c>
@@ -15406,7 +15396,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="15">
         <v>278</v>
       </c>
@@ -15438,7 +15428,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="15">
         <v>279</v>
       </c>
@@ -15470,7 +15460,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="15">
         <v>280</v>
       </c>
@@ -15502,7 +15492,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="15">
         <v>281</v>
       </c>
@@ -15534,7 +15524,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="15">
         <v>282</v>
       </c>
@@ -15566,7 +15556,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="15">
         <v>283</v>
       </c>
@@ -15598,7 +15588,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="15">
         <v>284</v>
       </c>
@@ -15630,7 +15620,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="15">
         <v>285</v>
       </c>
@@ -15662,7 +15652,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="15">
         <v>286</v>
       </c>
@@ -15694,7 +15684,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="15">
         <v>287</v>
       </c>
@@ -15726,7 +15716,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="15">
         <v>288</v>
       </c>
@@ -15758,7 +15748,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="15">
         <v>289</v>
       </c>
@@ -15790,7 +15780,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="15">
         <v>290</v>
       </c>
@@ -15822,7 +15812,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="15">
         <v>291</v>
       </c>
@@ -15854,7 +15844,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="15">
         <v>292</v>
       </c>
@@ -15886,7 +15876,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="15">
         <v>293</v>
       </c>
@@ -15918,7 +15908,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="15">
         <v>294</v>
       </c>
@@ -15950,7 +15940,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="15">
         <v>295</v>
       </c>
@@ -15982,7 +15972,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="15">
         <v>296</v>
       </c>
@@ -16014,7 +16004,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <v>297</v>
       </c>
@@ -16046,7 +16036,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="15">
         <v>298</v>
       </c>
@@ -16078,7 +16068,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="15">
         <v>299</v>
       </c>
@@ -16110,7 +16100,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="15">
         <v>300</v>
       </c>
@@ -16142,7 +16132,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="15">
         <v>301</v>
       </c>
@@ -16174,7 +16164,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <v>302</v>
       </c>
@@ -16206,7 +16196,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <v>303</v>
       </c>
@@ -16238,7 +16228,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <v>304</v>
       </c>
@@ -16270,7 +16260,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="15">
         <v>305</v>
       </c>
@@ -16302,7 +16292,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="15">
         <v>306</v>
       </c>
@@ -16334,7 +16324,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="15">
         <v>307</v>
       </c>
@@ -16366,7 +16356,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <v>308</v>
       </c>
@@ -16398,7 +16388,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="15">
         <v>309</v>
       </c>
@@ -16430,7 +16420,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="15">
         <v>310</v>
       </c>
@@ -16462,7 +16452,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="15">
         <v>311</v>
       </c>
@@ -16494,7 +16484,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="15">
         <v>312</v>
       </c>
@@ -16526,7 +16516,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="15">
         <v>313</v>
       </c>
@@ -16558,7 +16548,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="15">
         <v>314</v>
       </c>
@@ -16590,7 +16580,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="15">
         <v>315</v>
       </c>
@@ -16622,7 +16612,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="15">
         <v>316</v>
       </c>
@@ -16654,7 +16644,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="15">
         <v>317</v>
       </c>
@@ -16686,7 +16676,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="15">
         <v>318</v>
       </c>
@@ -16718,7 +16708,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="15">
         <v>319</v>
       </c>
@@ -16750,7 +16740,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="15">
         <v>320</v>
       </c>
@@ -16782,7 +16772,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="15">
         <v>321</v>
       </c>
@@ -16814,7 +16804,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="15">
         <v>322</v>
       </c>
@@ -16846,7 +16836,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="15">
         <v>323</v>
       </c>
@@ -16878,7 +16868,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="15">
         <v>324</v>
       </c>
@@ -16910,7 +16900,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="15">
         <v>325</v>
       </c>
@@ -16942,7 +16932,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="15">
         <v>326</v>
       </c>
@@ -16974,7 +16964,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="15">
         <v>327</v>
       </c>
@@ -17006,7 +16996,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="15">
         <v>328</v>
       </c>
@@ -17038,7 +17028,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="15">
         <v>329</v>
       </c>
@@ -17070,7 +17060,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="15">
         <v>330</v>
       </c>
@@ -17102,7 +17092,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="15">
         <v>331</v>
       </c>
@@ -17134,7 +17124,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="15">
         <v>332</v>
       </c>
@@ -17166,7 +17156,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="15">
         <v>333</v>
       </c>
@@ -17198,7 +17188,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="15">
         <v>334</v>
       </c>
@@ -17230,7 +17220,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="15">
         <v>335</v>
       </c>
@@ -17262,7 +17252,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="15">
         <v>336</v>
       </c>
@@ -17294,7 +17284,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="15">
         <v>337</v>
       </c>
@@ -17326,7 +17316,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="15">
         <v>338</v>
       </c>
@@ -17358,7 +17348,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="15">
         <v>339</v>
       </c>
@@ -17390,7 +17380,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="15">
         <v>340</v>
       </c>
@@ -17422,7 +17412,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="15">
         <v>341</v>
       </c>
@@ -17454,7 +17444,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="15">
         <v>342</v>
       </c>
@@ -17486,7 +17476,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="15">
         <v>343</v>
       </c>
@@ -17518,7 +17508,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="15">
         <v>344</v>
       </c>
@@ -17550,7 +17540,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="15">
         <v>345</v>
       </c>
@@ -17582,7 +17572,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="15">
         <v>346</v>
       </c>
@@ -17614,7 +17604,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="15">
         <v>347</v>
       </c>
@@ -17646,7 +17636,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="15">
         <v>348</v>
       </c>
@@ -17678,7 +17668,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="15">
         <v>349</v>
       </c>
@@ -17710,7 +17700,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="15">
         <v>350</v>
       </c>
@@ -17742,7 +17732,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="15">
         <v>351</v>
       </c>
@@ -17774,7 +17764,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="15">
         <v>352</v>
       </c>
@@ -17806,7 +17796,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="15">
         <v>353</v>
       </c>
@@ -17838,7 +17828,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="15">
         <v>354</v>
       </c>
@@ -17870,7 +17860,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="15">
         <v>355</v>
       </c>
@@ -17902,7 +17892,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="15">
         <v>356</v>
       </c>
@@ -17934,7 +17924,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="15">
         <v>357</v>
       </c>
@@ -17966,7 +17956,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="15">
         <v>358</v>
       </c>
@@ -17998,7 +17988,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="15">
         <v>359</v>
       </c>
@@ -18030,7 +18020,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="15">
         <v>360</v>
       </c>
@@ -18062,7 +18052,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="15">
         <v>361</v>
       </c>
@@ -18094,7 +18084,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="15">
         <v>362</v>
       </c>
@@ -18126,7 +18116,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="15">
         <v>363</v>
       </c>
@@ -18158,7 +18148,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="15">
         <v>364</v>
       </c>
@@ -18190,7 +18180,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="15">
         <v>365</v>
       </c>
@@ -18222,7 +18212,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="15">
         <v>366</v>
       </c>
@@ -18254,7 +18244,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="15">
         <v>367</v>
       </c>
@@ -18286,7 +18276,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="15">
         <v>368</v>
       </c>
@@ -18318,7 +18308,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="15">
         <v>369</v>
       </c>
@@ -18350,7 +18340,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="15">
         <v>370</v>
       </c>
@@ -18382,7 +18372,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="15">
         <v>371</v>
       </c>
@@ -18414,7 +18404,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="15">
         <v>372</v>
       </c>
@@ -18446,7 +18436,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="15">
         <v>373</v>
       </c>
@@ -18478,7 +18468,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="15">
         <v>374</v>
       </c>
@@ -18510,7 +18500,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="15">
         <v>375</v>
       </c>
@@ -18542,7 +18532,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="15">
         <v>376</v>
       </c>
@@ -18574,7 +18564,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="15">
         <v>377</v>
       </c>
@@ -18606,7 +18596,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="15">
         <v>378</v>
       </c>
@@ -18638,7 +18628,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="15">
         <v>379</v>
       </c>
@@ -18670,7 +18660,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="15">
         <v>380</v>
       </c>
@@ -18702,7 +18692,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="15">
         <v>381</v>
       </c>
@@ -18734,7 +18724,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="15">
         <v>382</v>
       </c>
@@ -18766,7 +18756,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="15">
         <v>383</v>
       </c>
@@ -18798,7 +18788,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="15">
         <v>384</v>
       </c>
@@ -18830,7 +18820,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="15">
         <v>385</v>
       </c>
@@ -18862,7 +18852,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="15">
         <v>386</v>
       </c>
@@ -18894,7 +18884,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="15">
         <v>387</v>
       </c>
@@ -18926,7 +18916,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="15">
         <v>388</v>
       </c>
@@ -18958,7 +18948,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="15">
         <v>389</v>
       </c>
@@ -18990,7 +18980,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="15">
         <v>390</v>
       </c>
@@ -19022,7 +19012,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="15">
         <v>391</v>
       </c>
@@ -19054,7 +19044,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="15">
         <v>392</v>
       </c>
@@ -19086,7 +19076,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="15">
         <v>393</v>
       </c>
@@ -19118,7 +19108,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="15">
         <v>394</v>
       </c>
@@ -19150,7 +19140,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="15">
         <v>395</v>
       </c>
@@ -19182,7 +19172,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="15">
         <v>396</v>
       </c>
@@ -19214,7 +19204,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="15">
         <v>397</v>
       </c>
@@ -19246,7 +19236,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="15">
         <v>398</v>
       </c>
@@ -19278,7 +19268,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="15">
         <v>399</v>
       </c>
@@ -19310,7 +19300,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="15">
         <v>400</v>
       </c>
@@ -19342,7 +19332,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="15">
         <v>401</v>
       </c>
@@ -19374,7 +19364,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="15">
         <v>402</v>
       </c>
@@ -19406,7 +19396,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="15">
         <v>403</v>
       </c>
@@ -19438,7 +19428,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="15">
         <v>404</v>
       </c>
@@ -19470,7 +19460,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="15">
         <v>405</v>
       </c>
@@ -19502,7 +19492,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="15">
         <v>406</v>
       </c>
@@ -19534,7 +19524,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="15">
         <v>407</v>
       </c>
@@ -19566,7 +19556,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="15">
         <v>408</v>
       </c>
@@ -19598,7 +19588,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="15">
         <v>409</v>
       </c>
@@ -19630,7 +19620,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="15">
         <v>410</v>
       </c>
@@ -19662,7 +19652,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="15">
         <v>411</v>
       </c>
@@ -19694,7 +19684,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="15">
         <v>412</v>
       </c>
@@ -19726,7 +19716,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="15">
         <v>413</v>
       </c>
@@ -19758,7 +19748,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="15">
         <v>414</v>
       </c>
@@ -19790,7 +19780,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="15">
         <v>415</v>
       </c>
@@ -19822,7 +19812,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="15">
         <v>416</v>
       </c>
@@ -19854,7 +19844,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="15">
         <v>417</v>
       </c>
@@ -19886,7 +19876,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="15">
         <v>418</v>
       </c>
@@ -19918,7 +19908,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="15">
         <v>419</v>
       </c>
@@ -19950,7 +19940,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="15">
         <v>420</v>
       </c>
@@ -19982,7 +19972,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="15">
         <v>421</v>
       </c>
@@ -20014,7 +20004,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="15">
         <v>422</v>
       </c>
@@ -20046,7 +20036,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="15">
         <v>423</v>
       </c>
@@ -20078,7 +20068,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="15">
         <v>424</v>
       </c>
@@ -20110,7 +20100,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="15">
         <v>425</v>
       </c>
@@ -20142,7 +20132,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="15">
         <v>426</v>
       </c>
@@ -20174,7 +20164,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="15">
         <v>427</v>
       </c>
@@ -20206,7 +20196,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="15">
         <v>428</v>
       </c>
@@ -20238,7 +20228,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="15">
         <v>429</v>
       </c>
@@ -20270,7 +20260,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="15">
         <v>430</v>
       </c>
@@ -20302,7 +20292,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="15">
         <v>431</v>
       </c>
@@ -20334,7 +20324,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="15">
         <v>432</v>
       </c>
@@ -20366,7 +20356,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="15">
         <v>433</v>
       </c>
@@ -20398,7 +20388,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="15">
         <v>434</v>
       </c>
@@ -20430,7 +20420,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="15">
         <v>435</v>
       </c>
@@ -20462,7 +20452,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="15">
         <v>436</v>
       </c>
@@ -20494,7 +20484,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="15">
         <v>437</v>
       </c>
@@ -20526,7 +20516,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="15">
         <v>438</v>
       </c>
@@ -20558,7 +20548,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="15">
         <v>439</v>
       </c>
@@ -20590,7 +20580,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="15">
         <v>440</v>
       </c>
@@ -20622,7 +20612,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="15">
         <v>441</v>
       </c>
@@ -20654,7 +20644,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="15">
         <v>442</v>
       </c>
@@ -20686,7 +20676,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="15">
         <v>443</v>
       </c>
@@ -20718,7 +20708,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="15">
         <v>444</v>
       </c>
@@ -20750,7 +20740,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="15">
         <v>445</v>
       </c>
@@ -20782,7 +20772,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="15">
         <v>446</v>
       </c>
@@ -20814,7 +20804,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="15">
         <v>447</v>
       </c>
@@ -20846,7 +20836,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="15">
         <v>448</v>
       </c>
@@ -20878,7 +20868,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="15">
         <v>449</v>
       </c>
@@ -20910,7 +20900,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="15">
         <v>450</v>
       </c>
@@ -20942,7 +20932,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="15">
         <v>451</v>
       </c>
@@ -20974,7 +20964,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="15">
         <v>452</v>
       </c>
@@ -21006,7 +20996,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="15">
         <v>453</v>
       </c>
@@ -21038,7 +21028,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="15">
         <v>454</v>
       </c>
@@ -21070,7 +21060,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="15">
         <v>455</v>
       </c>
@@ -21102,7 +21092,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="15">
         <v>456</v>
       </c>
@@ -21134,7 +21124,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="15">
         <v>457</v>
       </c>
@@ -21166,7 +21156,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="15">
         <v>458</v>
       </c>
@@ -21198,7 +21188,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="15">
         <v>459</v>
       </c>
@@ -21230,7 +21220,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="15">
         <v>460</v>
       </c>
@@ -21262,7 +21252,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="15">
         <v>461</v>
       </c>
@@ -21294,7 +21284,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="15">
         <v>462</v>
       </c>
@@ -21326,7 +21316,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="15">
         <v>463</v>
       </c>
@@ -21358,7 +21348,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="15">
         <v>464</v>
       </c>
@@ -21390,7 +21380,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="15">
         <v>465</v>
       </c>
@@ -21422,7 +21412,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="15">
         <v>466</v>
       </c>
@@ -21454,7 +21444,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="15">
         <v>467</v>
       </c>
@@ -21486,7 +21476,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="15">
         <v>468</v>
       </c>
@@ -21518,7 +21508,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="15">
         <v>469</v>
       </c>
@@ -21550,7 +21540,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="15">
         <v>470</v>
       </c>
@@ -21582,7 +21572,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="15">
         <v>471</v>
       </c>
@@ -21614,7 +21604,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="15">
         <v>472</v>
       </c>
@@ -21646,7 +21636,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="15">
         <v>473</v>
       </c>
@@ -21678,7 +21668,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="15">
         <v>474</v>
       </c>
@@ -21710,7 +21700,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="15">
         <v>475</v>
       </c>
@@ -21742,7 +21732,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="15">
         <v>476</v>
       </c>
@@ -21774,7 +21764,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="15">
         <v>477</v>
       </c>
@@ -21806,7 +21796,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="15">
         <v>478</v>
       </c>
@@ -21838,7 +21828,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="15">
         <v>479</v>
       </c>
@@ -21870,7 +21860,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="15">
         <v>480</v>
       </c>
@@ -21902,7 +21892,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="15">
         <v>481</v>
       </c>
@@ -21934,7 +21924,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="15">
         <v>482</v>
       </c>
@@ -21966,7 +21956,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="15">
         <v>483</v>
       </c>
@@ -21998,7 +21988,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="15">
         <v>484</v>
       </c>
@@ -22030,7 +22020,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="15">
         <v>485</v>
       </c>
@@ -22062,7 +22052,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="15">
         <v>486</v>
       </c>
@@ -22094,7 +22084,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="15">
         <v>487</v>
       </c>
@@ -22126,7 +22116,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="15">
         <v>488</v>
       </c>
@@ -22158,7 +22148,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="15">
         <v>489</v>
       </c>
@@ -22190,7 +22180,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="15">
         <v>490</v>
       </c>
@@ -22222,7 +22212,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="15">
         <v>491</v>
       </c>
@@ -22254,7 +22244,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="15">
         <v>492</v>
       </c>
@@ -22286,7 +22276,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="15">
         <v>493</v>
       </c>
@@ -22318,7 +22308,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="15">
         <v>494</v>
       </c>
@@ -22350,7 +22340,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="15">
         <v>495</v>
       </c>
@@ -22382,7 +22372,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="15">
         <v>496</v>
       </c>
@@ -22414,7 +22404,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="15">
         <v>497</v>
       </c>
@@ -22446,7 +22436,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="15">
         <v>498</v>
       </c>
@@ -22478,7 +22468,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="15">
         <v>499</v>
       </c>
@@ -22510,7 +22500,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="15">
         <v>500</v>
       </c>
@@ -22542,7 +22532,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="15">
         <v>501</v>
       </c>
@@ -22574,7 +22564,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="15">
         <v>502</v>
       </c>
@@ -22606,7 +22596,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="15">
         <v>503</v>
       </c>
@@ -22638,7 +22628,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="15">
         <v>504</v>
       </c>
@@ -22670,7 +22660,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="15">
         <v>505</v>
       </c>
@@ -22702,7 +22692,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="15">
         <v>506</v>
       </c>
@@ -22734,7 +22724,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="15">
         <v>507</v>
       </c>
@@ -22766,7 +22756,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="15">
         <v>508</v>
       </c>
@@ -22798,7 +22788,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="15">
         <v>509</v>
       </c>
@@ -22830,7 +22820,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="15">
         <v>510</v>
       </c>
@@ -22862,7 +22852,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="15">
         <v>511</v>
       </c>
@@ -22894,7 +22884,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="15">
         <v>512</v>
       </c>
@@ -22926,7 +22916,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="15">
         <v>513</v>
       </c>
@@ -22958,7 +22948,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="15">
         <v>514</v>
       </c>
@@ -22990,7 +22980,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="15">
         <v>515</v>
       </c>
@@ -23022,7 +23012,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="15">
         <v>516</v>
       </c>
@@ -23054,7 +23044,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="15">
         <v>517</v>
       </c>
@@ -23086,7 +23076,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="15">
         <v>518</v>
       </c>
@@ -23118,7 +23108,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="15">
         <v>519</v>
       </c>
@@ -23150,7 +23140,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="15">
         <v>520</v>
       </c>
@@ -23182,7 +23172,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="15">
         <v>521</v>
       </c>
@@ -23214,7 +23204,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="15">
         <v>522</v>
       </c>
@@ -23246,7 +23236,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="15">
         <v>523</v>
       </c>
@@ -23278,7 +23268,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="15">
         <v>524</v>
       </c>
@@ -23310,7 +23300,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="15">
         <v>525</v>
       </c>
@@ -23342,7 +23332,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="15">
         <v>526</v>
       </c>
@@ -23374,7 +23364,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="15">
         <v>527</v>
       </c>
@@ -23406,7 +23396,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="15">
         <v>528</v>
       </c>
@@ -23438,7 +23428,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="15">
         <v>529</v>
       </c>
@@ -23470,7 +23460,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="15">
         <v>530</v>
       </c>
@@ -23502,7 +23492,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="15">
         <v>531</v>
       </c>
@@ -23534,7 +23524,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="15">
         <v>532</v>
       </c>
@@ -23566,7 +23556,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="15">
         <v>533</v>
       </c>
@@ -23598,7 +23588,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="15">
         <v>534</v>
       </c>
@@ -23630,7 +23620,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="15">
         <v>535</v>
       </c>
@@ -23662,7 +23652,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="15">
         <v>536</v>
       </c>
@@ -23694,7 +23684,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="15">
         <v>537</v>
       </c>
@@ -23726,7 +23716,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="15">
         <v>538</v>
       </c>
@@ -23758,7 +23748,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="15">
         <v>539</v>
       </c>
@@ -23790,7 +23780,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="15">
         <v>540</v>
       </c>
@@ -23822,7 +23812,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="15">
         <v>541</v>
       </c>
@@ -23854,7 +23844,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="15">
         <v>542</v>
       </c>
@@ -23886,7 +23876,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="15">
         <v>543</v>
       </c>
@@ -23918,7 +23908,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="15">
         <v>544</v>
       </c>
@@ -23950,7 +23940,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="15">
         <v>545</v>
       </c>
@@ -23982,7 +23972,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="15">
         <v>546</v>
       </c>
@@ -24014,7 +24004,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="15">
         <v>547</v>
       </c>
@@ -24046,7 +24036,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="15">
         <v>548</v>
       </c>
@@ -24078,7 +24068,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="15">
         <v>549</v>
       </c>
@@ -24110,7 +24100,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="15">
         <v>550</v>
       </c>
@@ -24142,7 +24132,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="15">
         <v>551</v>
       </c>
@@ -24174,7 +24164,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="15">
         <v>552</v>
       </c>
@@ -24206,7 +24196,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="15">
         <v>553</v>
       </c>
@@ -24238,7 +24228,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="15">
         <v>554</v>
       </c>
@@ -24270,7 +24260,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="15">
         <v>555</v>
       </c>
@@ -24302,7 +24292,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="15">
         <v>556</v>
       </c>
@@ -24334,7 +24324,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="15">
         <v>557</v>
       </c>
@@ -24366,7 +24356,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="15">
         <v>558</v>
       </c>
@@ -24398,7 +24388,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="15">
         <v>559</v>
       </c>
@@ -24430,7 +24420,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" s="15">
         <v>560</v>
       </c>
@@ -24462,7 +24452,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" s="15">
         <v>561</v>
       </c>
@@ -24494,7 +24484,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" s="15">
         <v>562</v>
       </c>
@@ -24526,7 +24516,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" s="15">
         <v>563</v>
       </c>
@@ -24558,7 +24548,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="15">
         <v>564</v>
       </c>
@@ -24590,7 +24580,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="15">
         <v>565</v>
       </c>
@@ -24622,7 +24612,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" s="15">
         <v>566</v>
       </c>
@@ -24654,7 +24644,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" s="15">
         <v>567</v>
       </c>
@@ -24686,7 +24676,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="15">
         <v>568</v>
       </c>
@@ -24718,7 +24708,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="15">
         <v>569</v>
       </c>
@@ -24750,7 +24740,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" s="15">
         <v>570</v>
       </c>
@@ -24782,7 +24772,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" s="15">
         <v>571</v>
       </c>
@@ -24814,7 +24804,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" s="15">
         <v>572</v>
       </c>
@@ -24846,7 +24836,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" s="15">
         <v>573</v>
       </c>
@@ -24878,7 +24868,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="15">
         <v>574</v>
       </c>
@@ -24910,7 +24900,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="15">
         <v>575</v>
       </c>
@@ -24942,7 +24932,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" s="15">
         <v>576</v>
       </c>
@@ -24974,7 +24964,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" s="15">
         <v>577</v>
       </c>
@@ -25006,7 +24996,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="15">
         <v>578</v>
       </c>
@@ -25038,7 +25028,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="15">
         <v>579</v>
       </c>
@@ -25070,7 +25060,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" s="15">
         <v>580</v>
       </c>
@@ -25102,7 +25092,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" s="15">
         <v>581</v>
       </c>
@@ -25134,7 +25124,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="15">
         <v>582</v>
       </c>
@@ -25166,7 +25156,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" s="15">
         <v>583</v>
       </c>
@@ -25198,7 +25188,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="15">
         <v>584</v>
       </c>
@@ -25230,7 +25220,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="15">
         <v>585</v>
       </c>
@@ -25262,7 +25252,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" s="15">
         <v>586</v>
       </c>
@@ -25294,7 +25284,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" s="15">
         <v>587</v>
       </c>
@@ -25326,7 +25316,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="15">
         <v>588</v>
       </c>
@@ -25358,7 +25348,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="15">
         <v>589</v>
       </c>
@@ -25390,7 +25380,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" s="15">
         <v>590</v>
       </c>
@@ -25422,7 +25412,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" s="15">
         <v>591</v>
       </c>
@@ -25454,7 +25444,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" s="15">
         <v>592</v>
       </c>
@@ -25486,7 +25476,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" s="15">
         <v>593</v>
       </c>
@@ -25518,7 +25508,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="15">
         <v>594</v>
       </c>
@@ -25550,7 +25540,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="15">
         <v>595</v>
       </c>
@@ -25582,7 +25572,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" s="15">
         <v>596</v>
       </c>
@@ -25614,7 +25604,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" s="15">
         <v>597</v>
       </c>
@@ -25646,7 +25636,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="15">
         <v>598</v>
       </c>
@@ -25678,7 +25668,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="15">
         <v>599</v>
       </c>
@@ -25710,7 +25700,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="15">
         <v>600</v>
       </c>
@@ -25742,7 +25732,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="15">
         <v>601</v>
       </c>
@@ -25774,7 +25764,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" s="15">
         <v>602</v>
       </c>
@@ -25806,7 +25796,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" s="15">
         <v>603</v>
       </c>
@@ -25838,7 +25828,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="15">
         <v>604</v>
       </c>
@@ -25870,7 +25860,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="15">
         <v>605</v>
       </c>
@@ -25902,7 +25892,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" s="15">
         <v>606</v>
       </c>
@@ -25934,7 +25924,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" s="15">
         <v>607</v>
       </c>
@@ -25966,7 +25956,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="15">
         <v>608</v>
       </c>
@@ -25998,7 +25988,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="15">
         <v>609</v>
       </c>
@@ -26030,7 +26020,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" s="15">
         <v>610</v>
       </c>
@@ -26062,7 +26052,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" s="15">
         <v>611</v>
       </c>
@@ -26094,7 +26084,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" s="15">
         <v>612</v>
       </c>
@@ -26126,7 +26116,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" s="15">
         <v>613</v>
       </c>
@@ -26158,7 +26148,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="15">
         <v>614</v>
       </c>
@@ -26190,7 +26180,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="15">
         <v>615</v>
       </c>
@@ -26222,7 +26212,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" s="15">
         <v>616</v>
       </c>
@@ -26254,7 +26244,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" s="15">
         <v>617</v>
       </c>
@@ -26286,7 +26276,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="15">
         <v>618</v>
       </c>
@@ -26318,7 +26308,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="15">
         <v>619</v>
       </c>
@@ -26350,7 +26340,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" s="15">
         <v>620</v>
       </c>
@@ -26382,7 +26372,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" s="15">
         <v>621</v>
       </c>
@@ -26414,7 +26404,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" s="15">
         <v>622</v>
       </c>
@@ -26446,7 +26436,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" s="15">
         <v>623</v>
       </c>
@@ -26478,7 +26468,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="15">
         <v>624</v>
       </c>
@@ -26510,7 +26500,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="15">
         <v>625</v>
       </c>
@@ -26542,7 +26532,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" s="15">
         <v>626</v>
       </c>
@@ -26574,7 +26564,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" s="15">
         <v>627</v>
       </c>
@@ -26606,7 +26596,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="15">
         <v>628</v>
       </c>
@@ -26638,7 +26628,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="15">
         <v>629</v>
       </c>
@@ -26670,7 +26660,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" s="15">
         <v>630</v>
       </c>
@@ -26702,7 +26692,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" s="15">
         <v>631</v>
       </c>
@@ -26734,7 +26724,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" s="15">
         <v>632</v>
       </c>
@@ -26766,7 +26756,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" s="15">
         <v>633</v>
       </c>
@@ -26798,7 +26788,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="15">
         <v>634</v>
       </c>
@@ -26830,7 +26820,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="15">
         <v>635</v>
       </c>
@@ -26862,7 +26852,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" s="15">
         <v>636</v>
       </c>
@@ -26894,7 +26884,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" s="15">
         <v>637</v>
       </c>
@@ -26926,7 +26916,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="15">
         <v>638</v>
       </c>
@@ -26958,7 +26948,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="15">
         <v>639</v>
       </c>
@@ -26990,7 +26980,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" s="15">
         <v>640</v>
       </c>
@@ -27022,7 +27012,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" s="15">
         <v>641</v>
       </c>
@@ -27054,7 +27044,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" s="15">
         <v>642</v>
       </c>
@@ -27086,7 +27076,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" s="15">
         <v>643</v>
       </c>
@@ -27118,7 +27108,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="15">
         <v>644</v>
       </c>
@@ -27150,7 +27140,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="15">
         <v>645</v>
       </c>
@@ -27182,7 +27172,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" s="15">
         <v>646</v>
       </c>
@@ -27214,7 +27204,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" s="15">
         <v>647</v>
       </c>
@@ -27246,7 +27236,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="15">
         <v>648</v>
       </c>
@@ -27278,7 +27268,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="15">
         <v>649</v>
       </c>
@@ -27310,7 +27300,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" s="15">
         <v>650</v>
       </c>
@@ -27342,7 +27332,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" s="15">
         <v>651</v>
       </c>
@@ -27374,7 +27364,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" s="15">
         <v>652</v>
       </c>
@@ -27406,7 +27396,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" s="15">
         <v>653</v>
       </c>
@@ -27438,7 +27428,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="15">
         <v>654</v>
       </c>
@@ -27470,7 +27460,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="15">
         <v>655</v>
       </c>
@@ -27502,7 +27492,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" s="15">
         <v>656</v>
       </c>
@@ -27534,7 +27524,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" s="15">
         <v>657</v>
       </c>
@@ -27566,7 +27556,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="15">
         <v>658</v>
       </c>
@@ -27598,7 +27588,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="15">
         <v>659</v>
       </c>
@@ -27630,7 +27620,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" s="15">
         <v>660</v>
       </c>
@@ -27662,7 +27652,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" s="15">
         <v>661</v>
       </c>
@@ -27694,7 +27684,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" s="15">
         <v>662</v>
       </c>
@@ -27726,7 +27716,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="15">
         <v>663</v>
       </c>
@@ -27758,7 +27748,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="15">
         <v>664</v>
       </c>
@@ -27790,7 +27780,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="15">
         <v>665</v>
       </c>
@@ -27822,7 +27812,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" s="15">
         <v>666</v>
       </c>
@@ -27854,7 +27844,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" s="15">
         <v>667</v>
       </c>
@@ -27886,7 +27876,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="15">
         <v>668</v>
       </c>
@@ -27918,7 +27908,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="15">
         <v>669</v>
       </c>
@@ -27950,7 +27940,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" s="15">
         <v>670</v>
       </c>
@@ -27982,7 +27972,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" s="15">
         <v>671</v>
       </c>
@@ -28014,7 +28004,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" s="15">
         <v>672</v>
       </c>
@@ -28046,7 +28036,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" s="15">
         <v>673</v>
       </c>
@@ -28078,7 +28068,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" s="15">
         <v>674</v>
       </c>
@@ -28110,7 +28100,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" s="15">
         <v>675</v>
       </c>
@@ -28142,7 +28132,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" s="15">
         <v>676</v>
       </c>
@@ -28174,7 +28164,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" s="15">
         <v>677</v>
       </c>
@@ -28206,7 +28196,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A680" s="15">
         <v>678</v>
       </c>
@@ -28238,7 +28228,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A681" s="15">
         <v>679</v>
       </c>
@@ -28270,7 +28260,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A682" s="15">
         <v>680</v>
       </c>
@@ -28302,7 +28292,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A683" s="15">
         <v>681</v>
       </c>
@@ -28334,7 +28324,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A684" s="15">
         <v>682</v>
       </c>
@@ -28366,7 +28356,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A685" s="15">
         <v>683</v>
       </c>
@@ -28398,7 +28388,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A686" s="15">
         <v>684</v>
       </c>
@@ -28430,7 +28420,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A687" s="15">
         <v>685</v>
       </c>
@@ -28462,7 +28452,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A688" s="15">
         <v>686</v>
       </c>
@@ -28494,7 +28484,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A689" s="15">
         <v>687</v>
       </c>
@@ -28526,7 +28516,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A690" s="15">
         <v>688</v>
       </c>
@@ -28558,7 +28548,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A691" s="15">
         <v>689</v>
       </c>
@@ -28590,7 +28580,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A692" s="15">
         <v>690</v>
       </c>
@@ -28622,7 +28612,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A693" s="15">
         <v>691</v>
       </c>
@@ -28654,7 +28644,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A694" s="15">
         <v>692</v>
       </c>
@@ -28686,7 +28676,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A695" s="15">
         <v>693</v>
       </c>
@@ -28718,7 +28708,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A696" s="15">
         <v>694</v>
       </c>
@@ -28750,7 +28740,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A697" s="15">
         <v>695</v>
       </c>
@@ -28782,7 +28772,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A698" s="15">
         <v>696</v>
       </c>
@@ -28814,7 +28804,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A699" s="15">
         <v>697</v>
       </c>
@@ -28846,7 +28836,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A700" s="15">
         <v>698</v>
       </c>
@@ -28878,7 +28868,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A701" s="15">
         <v>699</v>
       </c>
@@ -28910,7 +28900,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A702" s="15">
         <v>700</v>
       </c>
@@ -28942,7 +28932,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A703" s="15">
         <v>701</v>
       </c>
@@ -28974,7 +28964,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A704" s="15">
         <v>702</v>
       </c>
@@ -29006,7 +28996,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A705" s="15">
         <v>703</v>
       </c>
@@ -29038,7 +29028,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A706" s="15">
         <v>704</v>
       </c>
@@ -29070,7 +29060,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A707" s="15">
         <v>705</v>
       </c>
@@ -29102,7 +29092,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A708" s="15">
         <v>706</v>
       </c>
@@ -29134,7 +29124,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A709" s="15">
         <v>707</v>
       </c>
@@ -29166,7 +29156,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A710" s="15">
         <v>708</v>
       </c>
@@ -29198,7 +29188,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A711" s="15">
         <v>709</v>
       </c>
@@ -29230,7 +29220,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A712" s="15">
         <v>710</v>
       </c>
@@ -29262,7 +29252,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A713" s="15">
         <v>711</v>
       </c>
@@ -29294,7 +29284,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A714" s="15">
         <v>712</v>
       </c>
@@ -29326,7 +29316,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A715" s="15">
         <v>713</v>
       </c>
@@ -29358,7 +29348,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A716" s="15">
         <v>714</v>
       </c>
@@ -29390,7 +29380,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A717" s="15">
         <v>715</v>
       </c>
@@ -29422,7 +29412,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A718" s="15">
         <v>716</v>
       </c>
@@ -29454,7 +29444,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A719" s="15">
         <v>717</v>
       </c>
@@ -29486,7 +29476,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A720" s="15">
         <v>718</v>
       </c>
@@ -29518,7 +29508,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A721" s="15">
         <v>719</v>
       </c>
@@ -29550,7 +29540,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A722" s="15">
         <v>720</v>
       </c>
@@ -29582,7 +29572,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A723" s="15">
         <v>721</v>
       </c>
@@ -29614,7 +29604,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A724" s="15">
         <v>722</v>
       </c>
@@ -29646,7 +29636,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A725" s="15">
         <v>723</v>
       </c>
@@ -29678,7 +29668,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A726" s="15">
         <v>724</v>
       </c>
@@ -29710,7 +29700,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A727" s="15">
         <v>725</v>
       </c>
@@ -29742,7 +29732,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A728" s="15">
         <v>726</v>
       </c>
@@ -29774,7 +29764,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A729" s="15">
         <v>727</v>
       </c>
@@ -29806,7 +29796,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A730" s="15">
         <v>728</v>
       </c>
@@ -29838,7 +29828,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A731" s="15">
         <v>729</v>
       </c>
@@ -29870,7 +29860,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A732" s="15">
         <v>730</v>
       </c>
@@ -29902,7 +29892,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A733" s="15">
         <v>731</v>
       </c>
@@ -29934,7 +29924,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A734" s="15">
         <v>732</v>
       </c>
@@ -29966,7 +29956,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A735" s="15">
         <v>733</v>
       </c>
@@ -29998,7 +29988,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A736" s="15">
         <v>734</v>
       </c>
@@ -30030,7 +30020,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A737" s="15">
         <v>735</v>
       </c>
@@ -30062,7 +30052,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A738" s="15">
         <v>736</v>
       </c>
@@ -30094,7 +30084,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A739" s="15">
         <v>737</v>
       </c>
@@ -30126,7 +30116,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A740" s="15">
         <v>738</v>
       </c>
@@ -30158,7 +30148,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A741" s="15">
         <v>739</v>
       </c>
@@ -30190,7 +30180,7 @@
         <v>10.47</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A742" s="15">
         <v>740</v>
       </c>
@@ -30222,7 +30212,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A743" s="15">
         <v>741</v>
       </c>
@@ -30254,7 +30244,7 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A744" s="15">
         <v>742</v>
       </c>
@@ -30286,7 +30276,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A745" s="15">
         <v>743</v>
       </c>
@@ -30318,7 +30308,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A746" s="15">
         <v>744</v>
       </c>
@@ -30352,7 +30342,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30367,17 +30357,17 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>342</v>
       </c>
@@ -30400,7 +30390,7 @@
       <c r="R1" s="38"/>
       <c r="S1" s="38"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>343</v>
       </c>
@@ -30462,7 +30452,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="39" t="s">
         <v>354</v>
@@ -30523,7 +30513,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>373</v>
       </c>
@@ -30596,7 +30586,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>377</v>
       </c>
@@ -30669,7 +30659,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>379</v>
       </c>
@@ -30742,7 +30732,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>381</v>
       </c>
@@ -30815,7 +30805,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>341</v>
       </c>
@@ -30888,7 +30878,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>384</v>
       </c>
@@ -30961,7 +30951,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>386</v>
       </c>
@@ -31034,7 +31024,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>388</v>
       </c>
@@ -31103,7 +31093,7 @@
       <c r="T11" s="56"/>
       <c r="U11" s="57"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>390</v>
       </c>
@@ -31179,9 +31169,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31414,27 +31407,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A202D3EF-E74A-4B50-BD9D-588EBDA690CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A37F9B0-FB51-4EBC-8606-1AACB4773553}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="13eb6276-85db-4ef3-a671-167ab07ac255"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fc9abb88-5dc8-4425-a823-e2986ac3f199"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31459,9 +31440,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A37F9B0-FB51-4EBC-8606-1AACB4773553}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A202D3EF-E74A-4B50-BD9D-588EBDA690CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="13eb6276-85db-4ef3-a671-167ab07ac255"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fc9abb88-5dc8-4425-a823-e2986ac3f199"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Notebooks/Constanta Phase III/Input data/first_test_data_phase_III.xlsx
+++ b/Notebooks/Constanta Phase III/Input data/first_test_data_phase_III.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY6\github\breakwater\Notebooks\Constanta Phase III\Input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C80FD0-2561-4A4C-89C3-C7F1C47B15F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D0C7BF-DF22-4B80-94B7-C721BF9AD75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{06ED436A-2CC0-4489-A506-29F94518B839}"/>
   </bookViews>
@@ -26,9 +26,9 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Lt">'[1]Input_Project specific'!$E$20</definedName>
-    <definedName name="rho_r">'[1]Input_Project specific'!$E$3</definedName>
-    <definedName name="weight_check">'[1]Input_Project specific'!$E$19</definedName>
+    <definedName name="Lt">'Input_Project specific'!$E$20</definedName>
+    <definedName name="rho_r">'Input_Project specific'!$E$3</definedName>
+    <definedName name="weight_check">'Input_Project specific'!$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -2269,11 +2269,6 @@
             <v>Minimal</v>
           </cell>
         </row>
-        <row r="20">
-          <cell r="E20">
-            <v>1.82</v>
-          </cell>
-        </row>
       </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -4240,7 +4235,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31169,12 +31164,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31407,15 +31399,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A37F9B0-FB51-4EBC-8606-1AACB4773553}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A202D3EF-E74A-4B50-BD9D-588EBDA690CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="13eb6276-85db-4ef3-a671-167ab07ac255"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fc9abb88-5dc8-4425-a823-e2986ac3f199"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31440,18 +31444,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A202D3EF-E74A-4B50-BD9D-588EBDA690CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A37F9B0-FB51-4EBC-8606-1AACB4773553}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="13eb6276-85db-4ef3-a671-167ab07ac255"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fc9abb88-5dc8-4425-a823-e2986ac3f199"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>